--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E18D70-1651-4929-8CA3-7F2F3CF6768B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C584F82-730D-4F39-AF09-702D682FDC28}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Classificatiecode</t>
   </si>
   <si>
     <t>460A16100</t>
+  </si>
+  <si>
+    <t>Groepnaam (uniek)</t>
+  </si>
+  <si>
+    <t>Inhang</t>
+  </si>
+  <si>
+    <t>Kopschotten</t>
   </si>
 </sst>
 </file>
@@ -100,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,33 +432,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>460003000</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
     </row>
   </sheetData>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C584F82-730D-4F39-AF09-702D682FDC28}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687F4620-1F74-4A7E-B015-3DF8E58FCCD2}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-28920" yWindow="5550" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -44,13 +44,49 @@
     <t>460A16100</t>
   </si>
   <si>
-    <t>Groepnaam (uniek)</t>
-  </si>
-  <si>
-    <t>Inhang</t>
-  </si>
-  <si>
-    <t>Kopschotten</t>
+    <t>460003000</t>
+  </si>
+  <si>
+    <t>Brandblusmiddelen</t>
+  </si>
+  <si>
+    <t>Kopschot wandstelling</t>
+  </si>
+  <si>
+    <t>460A16000</t>
+  </si>
+  <si>
+    <t>460000300</t>
+  </si>
+  <si>
+    <t>Belijning vloer</t>
+  </si>
+  <si>
+    <t>130B01600</t>
+  </si>
+  <si>
+    <t>Platenwagen t.b.v. bake-off</t>
+  </si>
+  <si>
+    <t>130B50001</t>
+  </si>
+  <si>
+    <t>Brood werktafel</t>
+  </si>
+  <si>
+    <t>560B01000</t>
+  </si>
+  <si>
+    <t>Winkelwagens ELA</t>
+  </si>
+  <si>
+    <t>560B01300</t>
+  </si>
+  <si>
+    <t>Winkelwagens Tango</t>
+  </si>
+  <si>
+    <t>Groepnaam</t>
   </si>
 </sst>
 </file>
@@ -109,10 +145,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,15 +464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -448,27 +481,72 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
-        <v>460003000</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687F4620-1F74-4A7E-B015-3DF8E58FCCD2}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FC491F-91CA-4B18-96A4-F9DBC69A1F9B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5550" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>Groepnaam</t>
+  </si>
+  <si>
+    <t>GroepClassificatieCode</t>
+  </si>
+  <si>
+    <t>groep1</t>
+  </si>
+  <si>
+    <t>groep2</t>
+  </si>
+  <si>
+    <t>groep3</t>
+  </si>
+  <si>
+    <t>groep4</t>
+  </si>
+  <si>
+    <t>groep5</t>
+  </si>
+  <si>
+    <t>groep6</t>
+  </si>
+  <si>
+    <t>groep7</t>
   </si>
 </sst>
 </file>
@@ -464,88 +488,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FC491F-91CA-4B18-96A4-F9DBC69A1F9B}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0632DD4-534F-4E48-868C-F8188CE5B3D1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -89,28 +89,28 @@
     <t>Groepnaam</t>
   </si>
   <si>
-    <t>GroepClassificatieCode</t>
-  </si>
-  <si>
-    <t>groep1</t>
-  </si>
-  <si>
-    <t>groep2</t>
-  </si>
-  <si>
-    <t>groep3</t>
-  </si>
-  <si>
-    <t>groep4</t>
-  </si>
-  <si>
-    <t>groep5</t>
-  </si>
-  <si>
-    <t>groep6</t>
-  </si>
-  <si>
-    <t>groep7</t>
+    <t>GroepUUID</t>
+  </si>
+  <si>
+    <t>972fa507-8021-4933-9646-3e9c238f83ec</t>
+  </si>
+  <si>
+    <t>bcda9a3f-ab3f-4135-ba66-ecbd03fb745c</t>
+  </si>
+  <si>
+    <t>88d796c9-d588-4b88-956e-73ad02eb5ea7</t>
+  </si>
+  <si>
+    <t>a1308055-c284-483b-9a6a-50b357cbbcd1</t>
+  </si>
+  <si>
+    <t>e5a57688-313e-4a24-bf31-fcace58880a0</t>
+  </si>
+  <si>
+    <t>5a5e9758-2bac-4f05-8f18-bffdbbff5ca1</t>
+  </si>
+  <si>
+    <t>57b61f85-cc13-4b47-bd55-ad4990f2818f</t>
   </si>
 </sst>
 </file>
@@ -169,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,14 +495,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0632DD4-534F-4E48-868C-F8188CE5B3D1}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD783FB-3345-43CF-B8D5-0D1164155EDF}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Groepnaam</t>
   </si>
   <si>
-    <t>GroepUUID</t>
-  </si>
-  <si>
     <t>972fa507-8021-4933-9646-3e9c238f83ec</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>57b61f85-cc13-4b47-bd55-ad4990f2818f</t>
+  </si>
+  <si>
+    <t>GroepID</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD783FB-3345-43CF-B8D5-0D1164155EDF}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F6800E-AEEE-44F8-8156-BF309C1CA9AE}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>GroepID</t>
+  </si>
+  <si>
+    <t>460A14400</t>
+  </si>
+  <si>
+    <t>Stellingen</t>
+  </si>
+  <si>
+    <t>14a798eb-7613-4fab-a588-7b642203a559</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +613,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F6800E-AEEE-44F8-8156-BF309C1CA9AE}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CF44D2-8705-4FBE-91AF-40C9E78A49DD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -120,6 +120,54 @@
   </si>
   <si>
     <t>14a798eb-7613-4fab-a588-7b642203a559</t>
+  </si>
+  <si>
+    <t>460A23200</t>
+  </si>
+  <si>
+    <t>Stellingen Gondola</t>
+  </si>
+  <si>
+    <t>460H15400</t>
+  </si>
+  <si>
+    <t>460H16000</t>
+  </si>
+  <si>
+    <t>460A14300</t>
+  </si>
+  <si>
+    <t>680A60003</t>
+  </si>
+  <si>
+    <t>Stellingen Magazijn</t>
+  </si>
+  <si>
+    <t>Gangpadbord</t>
+  </si>
+  <si>
+    <t>Trapeze</t>
+  </si>
+  <si>
+    <t>540B09000</t>
+  </si>
+  <si>
+    <t>Winkelmandjes</t>
+  </si>
+  <si>
+    <t>384c2ac0-71f5-415b-8bf6-5f84412d3b90</t>
+  </si>
+  <si>
+    <t>2bfc7554-7daa-440d-a6af-14e7d776c99e</t>
+  </si>
+  <si>
+    <t>44cc9b5e-409c-4516-8331-018ca92412ff</t>
+  </si>
+  <si>
+    <t>bac50b6f-b902-4b5d-97c0-27376fa754a6</t>
+  </si>
+  <si>
+    <t>5e2e12ee-f4c9-4f32-8d1f-5e6b0bc51523</t>
   </si>
 </sst>
 </file>
@@ -501,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +672,72 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/AH - ClassificatieGroepering.xlsx
+++ b/AH - ClassificatieGroepering.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CF44D2-8705-4FBE-91AF-40C9E78A49DD}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAABA775-9138-4171-9708-2FC6BA6F0398}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Groeperen" sheetId="1" r:id="rId1"/>
+    <sheet name="Irrelevant" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -168,6 +169,330 @@
   </si>
   <si>
     <t>5e2e12ee-f4c9-4f32-8d1f-5e6b0bc51523</t>
+  </si>
+  <si>
+    <t>470012005</t>
+  </si>
+  <si>
+    <t>470012001</t>
+  </si>
+  <si>
+    <t>Luifel</t>
+  </si>
+  <si>
+    <t>1ea18507-12df-473c-ad77-450839657dab</t>
+  </si>
+  <si>
+    <t>460G04005</t>
+  </si>
+  <si>
+    <t>460G04505</t>
+  </si>
+  <si>
+    <t>460G04500</t>
+  </si>
+  <si>
+    <t>460G04000</t>
+  </si>
+  <si>
+    <t>170G00515</t>
+  </si>
+  <si>
+    <t>170G01000</t>
+  </si>
+  <si>
+    <t>170G00510</t>
+  </si>
+  <si>
+    <t>170G01005</t>
+  </si>
+  <si>
+    <t>460A10300</t>
+  </si>
+  <si>
+    <t>460A10500</t>
+  </si>
+  <si>
+    <t>460A10400</t>
+  </si>
+  <si>
+    <t>460A10200</t>
+  </si>
+  <si>
+    <t>460A10100</t>
+  </si>
+  <si>
+    <t>170G00500</t>
+  </si>
+  <si>
+    <t>460A10801</t>
+  </si>
+  <si>
+    <t>460A10901</t>
+  </si>
+  <si>
+    <t>460A11001</t>
+  </si>
+  <si>
+    <t>444170100</t>
+  </si>
+  <si>
+    <t>444220101</t>
+  </si>
+  <si>
+    <t>444220220</t>
+  </si>
+  <si>
+    <t>444220620</t>
+  </si>
+  <si>
+    <t>444172100</t>
+  </si>
+  <si>
+    <t>444221100</t>
+  </si>
+  <si>
+    <t>444174200</t>
+  </si>
+  <si>
+    <t>AH_Afbouw_Wandlat_H_NF: 1000</t>
+  </si>
+  <si>
+    <t>470011015</t>
+  </si>
+  <si>
+    <t>AH_Afbouw_Wandlat_Bakkerij_V: AH_Afbouw_Wandlat_Bakkerij_V</t>
+  </si>
+  <si>
+    <t>470011012</t>
+  </si>
+  <si>
+    <t>AH_Afbouw_Wandlat_Bakkerij_H_NF: AH_Afbouw_Wandlat_Bakkerij_H_NF</t>
+  </si>
+  <si>
+    <t>470011011</t>
+  </si>
+  <si>
+    <t>470011016</t>
+  </si>
+  <si>
+    <t>AH_Afbouw_Wandlat_H_NF: 1235</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_MS_75 (blik 75)</t>
+  </si>
+  <si>
+    <t>Basic Wall: ST_AF_24_Tegel_Wit (rw 12 + tgl 12)</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_AF_24_Grijs_RAL7032 (rw 12 + spp 12)_0 tot 3000+</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_AF_24_Grijs_RAL7032 (rw 12 + spp 12)_0 tot 3500+</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_MS_100 (gips 12.5 + blik 75 + gips 12.5)</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_AF_12_Wit_SR_RAL_9010 (unilin 12)</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_AF_24_Tegel_Wit (rw 12 + tgl 12)</t>
+  </si>
+  <si>
+    <t>Basic Wall: BI_MS_125_Iso (2x gips 25 + blik 75 + 2x gips 25)_60min</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_TD_DVkast: TD_3000</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 TD_Rechts</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 TD_Links</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_TD_DVkast: TD_2000</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_TD_DVkast: DV_3120</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 Diepvrieskast_Links</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_TD_DVkast: DV_2340</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 Diepvrieskast_Rechts</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Liggers_NF: RAL9010 stelling 3m</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 Wandstelling Rechts</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_NF: RAL9010 Wandstelling Links</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Liggers_NF: RAL9010 stelling 2m</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Liggers_NF: RAL9010 stelling 1m</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_TD_DVkast: DV_780</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Liggers_NF: RAL7021 stelling 3m laag</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_1850_NF: RAL7021 Wandstelling Links</t>
+  </si>
+  <si>
+    <t>AH_Algemeen_Frame_Zijkanten_1850_NF: RAL7021 Wandstelling Rechts</t>
+  </si>
+  <si>
+    <t>GG0A10200</t>
+  </si>
+  <si>
+    <t>GG_Stellingen_Eindstaander_NF: Hoog</t>
+  </si>
+  <si>
+    <t>GG0A22100</t>
+  </si>
+  <si>
+    <t>GG_Gemak_Stellingen_Eindpaneel: Links_Half open</t>
+  </si>
+  <si>
+    <t>GG0A50300</t>
+  </si>
+  <si>
+    <t>GG_Gemak_Stellingen_Interieur_NF: Interieur standaard 3 secties</t>
+  </si>
+  <si>
+    <t>GG0A50100</t>
+  </si>
+  <si>
+    <t>GG_Gemak_Stellingen_Interieur_NF: Interieur standaard 1 sectie</t>
+  </si>
+  <si>
+    <t>460002000</t>
+  </si>
+  <si>
+    <t>AH_Warenindeling_EM: Stelling N600 1850+</t>
+  </si>
+  <si>
+    <t>460A23100</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Gondola_NF: 1850</t>
+  </si>
+  <si>
+    <t>190A31301</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Aktiekop: Regulier_laag bord</t>
+  </si>
+  <si>
+    <t>460A14800</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Stelling_NF: 2090</t>
+  </si>
+  <si>
+    <t>460A14700</t>
+  </si>
+  <si>
+    <t>050B50002</t>
+  </si>
+  <si>
+    <t>AH_AGF_Verspakketten: 2-traps opstelling</t>
+  </si>
+  <si>
+    <t>GG0G00100</t>
+  </si>
+  <si>
+    <t>GG_Gemak_Stellingen_Stelling: GG_Gemak_Stellingen_Stelling</t>
+  </si>
+  <si>
+    <t>GG0A10100</t>
+  </si>
+  <si>
+    <t>GG_Stellingen_Stelling_NF: Standaard</t>
+  </si>
+  <si>
+    <t>GG0A54200</t>
+  </si>
+  <si>
+    <t>GG_Gemak_Stellingen_Achterwand_Kassa: 2 stellingen</t>
+  </si>
+  <si>
+    <t>GG_Stellingen_Stelling_NF: Kassa</t>
+  </si>
+  <si>
+    <t>460A13100</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Stelling_NF: 1850</t>
+  </si>
+  <si>
+    <t>460A22200</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Gondola_NF: 1600</t>
+  </si>
+  <si>
+    <t>460A22100</t>
+  </si>
+  <si>
+    <t>460A32300</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Afgeschotte kop_H1600: N600_N600</t>
+  </si>
+  <si>
+    <t>460A32100</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Afgeschotte kop_H2100: N600_N600</t>
+  </si>
+  <si>
+    <t>680A60300</t>
+  </si>
+  <si>
+    <t>AH_Magazijn_Nedcon_Stelling_NF: AH_Magazijn_Nedcon_Stelling_NF</t>
+  </si>
+  <si>
+    <t>680A60002</t>
+  </si>
+  <si>
+    <t>AH_Magazijn_Stelling_Verrijdbaar_CBL_DV_Brood: CBL17</t>
+  </si>
+  <si>
+    <t>680A60001</t>
+  </si>
+  <si>
+    <t>AH_Magazijn_Stelling_Verrijdbaar_CBL_DV_Brood: CBL11</t>
+  </si>
+  <si>
+    <t>680A60400</t>
+  </si>
+  <si>
+    <t>190A32005</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Meterinvulling: Bonusmeter half</t>
+  </si>
+  <si>
+    <t>190B01001</t>
+  </si>
+  <si>
+    <t>AH_Stellingen_Prijsfavorietenbeun: Klein</t>
+  </si>
+  <si>
+    <t>Omschrijving</t>
   </si>
 </sst>
 </file>
@@ -226,10 +551,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,8 +1059,1989 @@
         <v>43</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD37295-B604-4CF3-8132-22E340E56A9C}">
+  <dimension ref="A1:B542"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>470011015</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>470011012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>470011011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>470011016</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>444221100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524"/>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525"/>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527"/>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530"/>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531"/>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532"/>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533"/>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534"/>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536"/>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538"/>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540"/>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1 A543:A1048576 A3 A5:A14 A15:A35 A36:A60" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>